--- a/biology/Botanique/Concours_des_vins_Féminalise/Concours_des_vins_Féminalise.xlsx
+++ b/biology/Botanique/Concours_des_vins_Féminalise/Concours_des_vins_Féminalise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concours_des_vins_F%C3%A9minalise</t>
+          <t>Concours_des_vins_Féminalise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le concours des vins Féminalise est un concours féminin annuel professionnel d'œnologie des vins de France, de portée internationale, fondé en 2007 à Beaune en Bourgogne (capitale vinicole de renommée internationale).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Concours_des_vins_F%C3%A9minalise</t>
+          <t>Concours_des_vins_Féminalise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2007, Didier Martin (fondateur en 1996 du concours des vins de Bourgogne « Burgondia »), fonde ce concours des Féminalise, ouvert au mois d'avril au Palais des congrès de Beaune (mondialement célèbre pour sa vente des hospices de Beaune) à tous les vins de France de viticulteurs, viticultrices, caves coopératives ou négociant(e)s ...
 Plus de 600 participantes (170 en 2007) pour déguster plus de 4000 vins exclusivement dégustés à l'aveugle par des femmes professionnelles de la filière vin ou œnophile française, œnologues, vigneronnes, sommelières, cavistes ... du monde entier, avec plus de 500 vins féminalisés ...
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Concours_des_vins_F%C3%A9minalise</t>
+          <t>Concours_des_vins_Féminalise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Présidentes du concours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2007 : Éva Darlan (actrice).
 2008 : Lætitia Bléger (Miss France 2004, fille de viticulteur alsacien).
